--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,7 +155,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -300,444 +300,6 @@
         <patternFill>
           <bgColor rgb="FFCC3300"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
   </dxfs>
@@ -1018,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1199,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -5539,67 +5101,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,12 +64,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,13 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,8 +1291,8 @@
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
-        <v>8</v>
+      <c r="P5" s="4">
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -1351,8 +1339,8 @@
       <c r="AE5" s="4">
         <v>0</v>
       </c>
-      <c r="AF5" s="9">
-        <v>7</v>
+      <c r="AF5" s="8">
+        <v>1</v>
       </c>
       <c r="AG5" s="5">
         <v>0</v>
@@ -1390,8 +1378,8 @@
       <c r="AR5" s="5">
         <v>0</v>
       </c>
-      <c r="AS5" s="9">
-        <v>8</v>
+      <c r="AS5" s="5">
+        <v>0</v>
       </c>
       <c r="AT5" s="5">
         <v>0</v>
@@ -1470,8 +1458,8 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
-        <v>8</v>
+      <c r="P6" s="4">
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -1483,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
         <v>0</v>
@@ -1518,8 +1506,8 @@
       <c r="AE6" s="4">
         <v>0</v>
       </c>
-      <c r="AF6" s="9">
-        <v>7</v>
+      <c r="AF6" s="8">
+        <v>1</v>
       </c>
       <c r="AG6" s="5">
         <v>0</v>
@@ -1557,8 +1545,8 @@
       <c r="AR6" s="5">
         <v>0</v>
       </c>
-      <c r="AS6" s="9">
-        <v>8</v>
+      <c r="AS6" s="5">
+        <v>0</v>
       </c>
       <c r="AT6" s="5">
         <v>0</v>
@@ -1637,8 +1625,8 @@
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
-        <v>8</v>
+      <c r="P7" s="4">
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1650,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
         <v>0</v>
@@ -1685,8 +1673,8 @@
       <c r="AE7" s="4">
         <v>0</v>
       </c>
-      <c r="AF7" s="9">
-        <v>7</v>
+      <c r="AF7" s="8">
+        <v>1</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
@@ -1724,8 +1712,8 @@
       <c r="AR7" s="5">
         <v>0</v>
       </c>
-      <c r="AS7" s="9">
-        <v>8</v>
+      <c r="AS7" s="5">
+        <v>0</v>
       </c>
       <c r="AT7" s="5">
         <v>0</v>
@@ -1814,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -1852,7 +1840,7 @@
       <c r="AE8" s="4">
         <v>0</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="8">
         <v>7</v>
       </c>
       <c r="AG8" s="5">
@@ -1891,8 +1879,8 @@
       <c r="AR8" s="5">
         <v>0</v>
       </c>
-      <c r="AS8" s="9">
-        <v>8</v>
+      <c r="AS8" s="5">
+        <v>0</v>
       </c>
       <c r="AT8" s="5">
         <v>0</v>
@@ -1981,22 +1969,22 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -2019,8 +2007,8 @@
       <c r="AE9" s="4">
         <v>0</v>
       </c>
-      <c r="AF9" s="9">
-        <v>7</v>
+      <c r="AF9" s="8">
+        <v>1</v>
       </c>
       <c r="AG9" s="5">
         <v>0</v>
@@ -2058,8 +2046,8 @@
       <c r="AR9" s="5">
         <v>0</v>
       </c>
-      <c r="AS9" s="9">
-        <v>8</v>
+      <c r="AS9" s="5">
+        <v>0</v>
       </c>
       <c r="AT9" s="5">
         <v>0</v>
@@ -2148,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -2163,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
@@ -2186,8 +2174,8 @@
       <c r="AE10" s="4">
         <v>0</v>
       </c>
-      <c r="AF10" s="9">
-        <v>7</v>
+      <c r="AF10" s="8">
+        <v>1</v>
       </c>
       <c r="AG10" s="5">
         <v>0</v>
@@ -2225,8 +2213,8 @@
       <c r="AR10" s="5">
         <v>0</v>
       </c>
-      <c r="AS10" s="9">
-        <v>8</v>
+      <c r="AS10" s="5">
+        <v>0</v>
       </c>
       <c r="AT10" s="5">
         <v>0</v>
@@ -2315,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2330,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="4">
         <v>0</v>
@@ -2353,8 +2341,8 @@
       <c r="AE11" s="4">
         <v>0</v>
       </c>
-      <c r="AF11" s="9">
-        <v>7</v>
+      <c r="AF11" s="8">
+        <v>1</v>
       </c>
       <c r="AG11" s="5">
         <v>0</v>
@@ -2392,8 +2380,8 @@
       <c r="AR11" s="5">
         <v>0</v>
       </c>
-      <c r="AS11" s="9">
-        <v>8</v>
+      <c r="AS11" s="5">
+        <v>0</v>
       </c>
       <c r="AT11" s="5">
         <v>0</v>
@@ -2482,22 +2470,22 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <v>11</v>
       </c>
       <c r="W12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -3036,17 +3024,17 @@
       <c r="AJ15" s="3">
         <v>1</v>
       </c>
-      <c r="AK15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AL15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AM15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="9">
-        <v>8</v>
+      <c r="AK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
       </c>
       <c r="AO15" s="3">
         <v>1</v>
@@ -3641,8 +3629,8 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <v>8</v>
+      <c r="P19" s="4">
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -3689,8 +3677,8 @@
       <c r="AE19" s="4">
         <v>0</v>
       </c>
-      <c r="AF19" s="9">
-        <v>8</v>
+      <c r="AF19" s="4">
+        <v>0</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -3728,7 +3716,7 @@
       <c r="AR19" s="4">
         <v>0</v>
       </c>
-      <c r="AS19" s="9">
+      <c r="AS19" s="8">
         <v>7</v>
       </c>
       <c r="AT19" s="4">
@@ -3808,8 +3796,8 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="10">
-        <v>8</v>
+      <c r="P20" s="4">
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -3856,8 +3844,8 @@
       <c r="AE20" s="4">
         <v>0</v>
       </c>
-      <c r="AF20" s="9">
-        <v>8</v>
+      <c r="AF20" s="4">
+        <v>0</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -3895,7 +3883,7 @@
       <c r="AR20" s="4">
         <v>0</v>
       </c>
-      <c r="AS20" s="9">
+      <c r="AS20" s="8">
         <v>7</v>
       </c>
       <c r="AT20" s="4">
@@ -3975,8 +3963,8 @@
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <v>8</v>
+      <c r="P21" s="4">
+        <v>0</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -4023,8 +4011,8 @@
       <c r="AE21" s="4">
         <v>0</v>
       </c>
-      <c r="AF21" s="9">
-        <v>8</v>
+      <c r="AF21" s="4">
+        <v>0</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>
@@ -4062,7 +4050,7 @@
       <c r="AR21" s="4">
         <v>0</v>
       </c>
-      <c r="AS21" s="9">
+      <c r="AS21" s="8">
         <v>7</v>
       </c>
       <c r="AT21" s="4">
@@ -4142,8 +4130,8 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22" s="10">
-        <v>8</v>
+      <c r="P22" s="4">
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -4190,8 +4178,8 @@
       <c r="AE22" s="4">
         <v>0</v>
       </c>
-      <c r="AF22" s="9">
-        <v>8</v>
+      <c r="AF22" s="4">
+        <v>0</v>
       </c>
       <c r="AG22" s="4">
         <v>0</v>
@@ -4229,7 +4217,7 @@
       <c r="AR22" s="4">
         <v>0</v>
       </c>
-      <c r="AS22" s="9">
+      <c r="AS22" s="8">
         <v>7</v>
       </c>
       <c r="AT22" s="4">
@@ -4309,8 +4297,8 @@
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <v>8</v>
+      <c r="P23" s="4">
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -4357,8 +4345,8 @@
       <c r="AE23" s="4">
         <v>0</v>
       </c>
-      <c r="AF23" s="9">
-        <v>8</v>
+      <c r="AF23" s="4">
+        <v>0</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
@@ -4396,7 +4384,7 @@
       <c r="AR23" s="4">
         <v>0</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AS23" s="8">
         <v>7</v>
       </c>
       <c r="AT23" s="4">

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,7 +143,577 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -569,7 +1139,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,16 +1424,16 @@
         <v>3</v>
       </c>
       <c r="AK2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="3">
         <v>3</v>
@@ -1191,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -1358,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="5">
         <v>0</v>
@@ -1501,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="8">
         <v>1</v>
@@ -1674,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
@@ -1740,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="7">
         <v>1</v>
@@ -1996,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="8">
         <v>1</v>
@@ -2336,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4">
         <v>0</v>
@@ -5089,67 +5659,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,12 +64,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,20 +136,584 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -580,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,16 +1424,16 @@
         <v>3</v>
       </c>
       <c r="AK2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="3">
         <v>3</v>
@@ -1203,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -1303,8 +1861,8 @@
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
-        <v>8</v>
+      <c r="P5" s="4">
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -1351,8 +1909,8 @@
       <c r="AE5" s="4">
         <v>0</v>
       </c>
-      <c r="AF5" s="9">
-        <v>7</v>
+      <c r="AF5" s="8">
+        <v>1</v>
       </c>
       <c r="AG5" s="5">
         <v>0</v>
@@ -1370,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="5">
         <v>0</v>
@@ -1390,8 +1948,8 @@
       <c r="AR5" s="5">
         <v>0</v>
       </c>
-      <c r="AS5" s="9">
-        <v>8</v>
+      <c r="AS5" s="5">
+        <v>0</v>
       </c>
       <c r="AT5" s="5">
         <v>0</v>
@@ -1470,8 +2028,8 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
-        <v>8</v>
+      <c r="P6" s="4">
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -1483,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
         <v>0</v>
@@ -1513,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
       </c>
       <c r="AG6" s="5">
         <v>0</v>
@@ -1557,8 +2115,8 @@
       <c r="AR6" s="5">
         <v>0</v>
       </c>
-      <c r="AS6" s="9">
-        <v>8</v>
+      <c r="AS6" s="5">
+        <v>0</v>
       </c>
       <c r="AT6" s="5">
         <v>0</v>
@@ -1637,8 +2195,8 @@
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
-        <v>8</v>
+      <c r="P7" s="4">
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1650,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
         <v>0</v>
@@ -1685,7 +2243,7 @@
       <c r="AE7" s="4">
         <v>0</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="8">
         <v>7</v>
       </c>
       <c r="AG7" s="5">
@@ -1724,8 +2282,8 @@
       <c r="AR7" s="5">
         <v>0</v>
       </c>
-      <c r="AS7" s="9">
-        <v>8</v>
+      <c r="AS7" s="5">
+        <v>0</v>
       </c>
       <c r="AT7" s="5">
         <v>0</v>
@@ -1752,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="7">
         <v>1</v>
@@ -1814,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -1852,7 +2410,7 @@
       <c r="AE8" s="4">
         <v>0</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="8">
         <v>7</v>
       </c>
       <c r="AG8" s="5">
@@ -1891,8 +2449,8 @@
       <c r="AR8" s="5">
         <v>0</v>
       </c>
-      <c r="AS8" s="9">
-        <v>8</v>
+      <c r="AS8" s="5">
+        <v>0</v>
       </c>
       <c r="AT8" s="5">
         <v>0</v>
@@ -1981,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -2008,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1</v>
       </c>
       <c r="AG9" s="5">
         <v>0</v>
@@ -2058,8 +2616,8 @@
       <c r="AR9" s="5">
         <v>0</v>
       </c>
-      <c r="AS9" s="9">
-        <v>8</v>
+      <c r="AS9" s="5">
+        <v>0</v>
       </c>
       <c r="AT9" s="5">
         <v>0</v>
@@ -2148,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -2163,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
@@ -2186,8 +2744,8 @@
       <c r="AE10" s="4">
         <v>0</v>
       </c>
-      <c r="AF10" s="9">
-        <v>7</v>
+      <c r="AF10" s="8">
+        <v>1</v>
       </c>
       <c r="AG10" s="5">
         <v>0</v>
@@ -2225,8 +2783,8 @@
       <c r="AR10" s="5">
         <v>0</v>
       </c>
-      <c r="AS10" s="9">
-        <v>8</v>
+      <c r="AS10" s="5">
+        <v>0</v>
       </c>
       <c r="AT10" s="5">
         <v>0</v>
@@ -2315,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2330,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="4">
         <v>0</v>
@@ -2348,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4">
         <v>0</v>
       </c>
-      <c r="AF11" s="9">
-        <v>7</v>
+      <c r="AF11" s="8">
+        <v>1</v>
       </c>
       <c r="AG11" s="5">
         <v>0</v>
@@ -2392,8 +2950,8 @@
       <c r="AR11" s="5">
         <v>0</v>
       </c>
-      <c r="AS11" s="9">
-        <v>8</v>
+      <c r="AS11" s="5">
+        <v>0</v>
       </c>
       <c r="AT11" s="5">
         <v>0</v>
@@ -2482,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <v>11</v>
       </c>
       <c r="W12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -3036,17 +3594,17 @@
       <c r="AJ15" s="3">
         <v>1</v>
       </c>
-      <c r="AK15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AL15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AM15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="9">
-        <v>8</v>
+      <c r="AK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
       </c>
       <c r="AO15" s="3">
         <v>1</v>
@@ -3641,8 +4199,8 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <v>8</v>
+      <c r="P19" s="4">
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -3689,8 +4247,8 @@
       <c r="AE19" s="4">
         <v>0</v>
       </c>
-      <c r="AF19" s="9">
-        <v>8</v>
+      <c r="AF19" s="4">
+        <v>0</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -3728,7 +4286,7 @@
       <c r="AR19" s="4">
         <v>0</v>
       </c>
-      <c r="AS19" s="9">
+      <c r="AS19" s="8">
         <v>7</v>
       </c>
       <c r="AT19" s="4">
@@ -3808,8 +4366,8 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="10">
-        <v>8</v>
+      <c r="P20" s="4">
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -3856,8 +4414,8 @@
       <c r="AE20" s="4">
         <v>0</v>
       </c>
-      <c r="AF20" s="9">
-        <v>8</v>
+      <c r="AF20" s="4">
+        <v>0</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -3895,7 +4453,7 @@
       <c r="AR20" s="4">
         <v>0</v>
       </c>
-      <c r="AS20" s="9">
+      <c r="AS20" s="8">
         <v>7</v>
       </c>
       <c r="AT20" s="4">
@@ -3975,8 +4533,8 @@
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <v>8</v>
+      <c r="P21" s="4">
+        <v>0</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -4023,8 +4581,8 @@
       <c r="AE21" s="4">
         <v>0</v>
       </c>
-      <c r="AF21" s="9">
-        <v>8</v>
+      <c r="AF21" s="4">
+        <v>0</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>
@@ -4062,7 +4620,7 @@
       <c r="AR21" s="4">
         <v>0</v>
       </c>
-      <c r="AS21" s="9">
+      <c r="AS21" s="8">
         <v>7</v>
       </c>
       <c r="AT21" s="4">
@@ -4142,8 +4700,8 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22" s="10">
-        <v>8</v>
+      <c r="P22" s="4">
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -4190,8 +4748,8 @@
       <c r="AE22" s="4">
         <v>0</v>
       </c>
-      <c r="AF22" s="9">
-        <v>8</v>
+      <c r="AF22" s="4">
+        <v>0</v>
       </c>
       <c r="AG22" s="4">
         <v>0</v>
@@ -4229,7 +4787,7 @@
       <c r="AR22" s="4">
         <v>0</v>
       </c>
-      <c r="AS22" s="9">
+      <c r="AS22" s="8">
         <v>7</v>
       </c>
       <c r="AT22" s="4">
@@ -4309,8 +4867,8 @@
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <v>8</v>
+      <c r="P23" s="4">
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -4357,8 +4915,8 @@
       <c r="AE23" s="4">
         <v>0</v>
       </c>
-      <c r="AF23" s="9">
-        <v>8</v>
+      <c r="AF23" s="4">
+        <v>0</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
@@ -4396,7 +4954,7 @@
       <c r="AR23" s="4">
         <v>0</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AS23" s="8">
         <v>7</v>
       </c>
       <c r="AT23" s="4">
@@ -5101,67 +5659,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,12 +64,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,20 +136,737 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="113">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -581,7 +1292,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,8 +2014,8 @@
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
-        <v>8</v>
+      <c r="P5" s="4">
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -1351,7 +2062,7 @@
       <c r="AE5" s="4">
         <v>0</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="8">
         <v>7</v>
       </c>
       <c r="AG5" s="5">
@@ -1390,8 +2101,8 @@
       <c r="AR5" s="5">
         <v>0</v>
       </c>
-      <c r="AS5" s="9">
-        <v>8</v>
+      <c r="AS5" s="5">
+        <v>0</v>
       </c>
       <c r="AT5" s="5">
         <v>0</v>
@@ -1470,8 +2181,8 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
-        <v>8</v>
+      <c r="P6" s="4">
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -1518,7 +2229,7 @@
       <c r="AE6" s="4">
         <v>0</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="8">
         <v>7</v>
       </c>
       <c r="AG6" s="5">
@@ -1557,8 +2268,8 @@
       <c r="AR6" s="5">
         <v>0</v>
       </c>
-      <c r="AS6" s="9">
-        <v>8</v>
+      <c r="AS6" s="5">
+        <v>0</v>
       </c>
       <c r="AT6" s="5">
         <v>0</v>
@@ -1637,8 +2348,8 @@
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
-        <v>8</v>
+      <c r="P7" s="4">
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1685,7 +2396,7 @@
       <c r="AE7" s="4">
         <v>0</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="8">
         <v>7</v>
       </c>
       <c r="AG7" s="5">
@@ -1724,8 +2435,8 @@
       <c r="AR7" s="5">
         <v>0</v>
       </c>
-      <c r="AS7" s="9">
-        <v>8</v>
+      <c r="AS7" s="5">
+        <v>0</v>
       </c>
       <c r="AT7" s="5">
         <v>0</v>
@@ -1852,7 +2563,7 @@
       <c r="AE8" s="4">
         <v>0</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="8">
         <v>7</v>
       </c>
       <c r="AG8" s="5">
@@ -1891,8 +2602,8 @@
       <c r="AR8" s="5">
         <v>0</v>
       </c>
-      <c r="AS8" s="9">
-        <v>8</v>
+      <c r="AS8" s="5">
+        <v>0</v>
       </c>
       <c r="AT8" s="5">
         <v>0</v>
@@ -2019,7 +2730,7 @@
       <c r="AE9" s="4">
         <v>0</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="8">
         <v>7</v>
       </c>
       <c r="AG9" s="5">
@@ -2058,8 +2769,8 @@
       <c r="AR9" s="5">
         <v>0</v>
       </c>
-      <c r="AS9" s="9">
-        <v>8</v>
+      <c r="AS9" s="5">
+        <v>0</v>
       </c>
       <c r="AT9" s="5">
         <v>0</v>
@@ -2186,7 +2897,7 @@
       <c r="AE10" s="4">
         <v>0</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="8">
         <v>7</v>
       </c>
       <c r="AG10" s="5">
@@ -2225,8 +2936,8 @@
       <c r="AR10" s="5">
         <v>0</v>
       </c>
-      <c r="AS10" s="9">
-        <v>8</v>
+      <c r="AS10" s="5">
+        <v>0</v>
       </c>
       <c r="AT10" s="5">
         <v>0</v>
@@ -2353,7 +3064,7 @@
       <c r="AE11" s="4">
         <v>0</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AF11" s="8">
         <v>7</v>
       </c>
       <c r="AG11" s="5">
@@ -2392,8 +3103,8 @@
       <c r="AR11" s="5">
         <v>0</v>
       </c>
-      <c r="AS11" s="9">
-        <v>8</v>
+      <c r="AS11" s="5">
+        <v>0</v>
       </c>
       <c r="AT11" s="5">
         <v>0</v>
@@ -3036,17 +3747,17 @@
       <c r="AJ15" s="3">
         <v>1</v>
       </c>
-      <c r="AK15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AL15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AM15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="9">
-        <v>8</v>
+      <c r="AK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
       </c>
       <c r="AO15" s="3">
         <v>1</v>
@@ -3641,8 +4352,8 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <v>8</v>
+      <c r="P19" s="4">
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -3689,8 +4400,8 @@
       <c r="AE19" s="4">
         <v>0</v>
       </c>
-      <c r="AF19" s="9">
-        <v>8</v>
+      <c r="AF19" s="4">
+        <v>0</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -3728,7 +4439,7 @@
       <c r="AR19" s="4">
         <v>0</v>
       </c>
-      <c r="AS19" s="9">
+      <c r="AS19" s="8">
         <v>7</v>
       </c>
       <c r="AT19" s="4">
@@ -3808,8 +4519,8 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="10">
-        <v>8</v>
+      <c r="P20" s="4">
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -3856,8 +4567,8 @@
       <c r="AE20" s="4">
         <v>0</v>
       </c>
-      <c r="AF20" s="9">
-        <v>8</v>
+      <c r="AF20" s="4">
+        <v>0</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -3895,7 +4606,7 @@
       <c r="AR20" s="4">
         <v>0</v>
       </c>
-      <c r="AS20" s="9">
+      <c r="AS20" s="8">
         <v>7</v>
       </c>
       <c r="AT20" s="4">
@@ -3975,8 +4686,8 @@
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <v>8</v>
+      <c r="P21" s="4">
+        <v>0</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -4023,8 +4734,8 @@
       <c r="AE21" s="4">
         <v>0</v>
       </c>
-      <c r="AF21" s="9">
-        <v>8</v>
+      <c r="AF21" s="4">
+        <v>0</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>
@@ -4062,7 +4773,7 @@
       <c r="AR21" s="4">
         <v>0</v>
       </c>
-      <c r="AS21" s="9">
+      <c r="AS21" s="8">
         <v>7</v>
       </c>
       <c r="AT21" s="4">
@@ -4142,8 +4853,8 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22" s="10">
-        <v>8</v>
+      <c r="P22" s="4">
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -4190,8 +4901,8 @@
       <c r="AE22" s="4">
         <v>0</v>
       </c>
-      <c r="AF22" s="9">
-        <v>8</v>
+      <c r="AF22" s="4">
+        <v>0</v>
       </c>
       <c r="AG22" s="4">
         <v>0</v>
@@ -4229,7 +4940,7 @@
       <c r="AR22" s="4">
         <v>0</v>
       </c>
-      <c r="AS22" s="9">
+      <c r="AS22" s="8">
         <v>7</v>
       </c>
       <c r="AT22" s="4">
@@ -4309,8 +5020,8 @@
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <v>8</v>
+      <c r="P23" s="4">
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -4357,8 +5068,8 @@
       <c r="AE23" s="4">
         <v>0</v>
       </c>
-      <c r="AF23" s="9">
-        <v>8</v>
+      <c r="AF23" s="4">
+        <v>0</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
@@ -4396,7 +5107,7 @@
       <c r="AR23" s="4">
         <v>0</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AS23" s="8">
         <v>7</v>
       </c>
       <c r="AT23" s="4">
@@ -5101,67 +5812,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,164 +143,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1291,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1577,16 +1424,16 @@
         <v>3</v>
       </c>
       <c r="AK2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="3">
         <v>3</v>
@@ -1914,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -2063,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="5">
         <v>0</v>
@@ -2081,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="5">
         <v>0</v>
@@ -2194,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
         <v>0</v>
@@ -2224,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="5">
         <v>0</v>
@@ -2361,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
         <v>0</v>
@@ -2463,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="7">
         <v>1</v>
@@ -2525,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -2692,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -2719,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="5">
         <v>0</v>
@@ -2859,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -2874,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
@@ -2898,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="5">
         <v>0</v>
@@ -3026,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -3041,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="4">
         <v>0</v>
@@ -3059,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4">
         <v>0</v>
       </c>
       <c r="AF11" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="5">
         <v>0</v>
@@ -3193,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <v>11</v>
       </c>
       <c r="W12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -5812,67 +5659,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,442 +143,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1139,7 +708,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS20" sqref="AS20"/>
+      <selection activeCell="AS19" sqref="AS19:AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4287,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT19" s="4">
         <v>0</v>
@@ -4454,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="4">
         <v>0</v>
@@ -4621,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT21" s="4">
         <v>0</v>
@@ -4788,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT22" s="4">
         <v>0</v>
@@ -4955,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT23" s="4">
         <v>0</v>
@@ -5659,67 +5228,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,11 +143,612 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -708,7 +1309,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19:AS23"/>
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4">
         <v>0</v>
@@ -1330,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -1574,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -2126,19 +2727,19 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4">
         <v>1</v>
@@ -2302,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
@@ -2618,31 +3219,31 @@
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
         <v>11</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>0</v>
       </c>
       <c r="AE12" s="4">
         <v>0</v>
@@ -3277,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" s="4">
         <v>3</v>
@@ -3444,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="4">
         <v>3</v>
@@ -3611,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T18" s="4">
         <v>3</v>
@@ -3653,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="4">
         <v>1</v>
@@ -3778,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="4">
         <v>3</v>
@@ -3817,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -3945,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" s="4">
         <v>3</v>
@@ -3984,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -4112,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" s="4">
         <v>3</v>
@@ -4151,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>
@@ -4279,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22" s="4">
         <v>3</v>
@@ -4294,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y22" s="4">
         <v>0</v>
@@ -4318,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG22" s="4">
         <v>0</v>
@@ -4369,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX22" s="4">
         <v>0</v>
@@ -4446,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23" s="4">
         <v>3</v>
@@ -4458,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
@@ -4485,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
@@ -4539,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="4">
         <v>0</v>
@@ -4613,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" s="4">
         <v>3</v>
@@ -4655,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="4">
         <v>1</v>
@@ -4780,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="4">
         <v>3</v>
@@ -4947,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" s="4">
         <v>3</v>
@@ -5228,68 +5829,73 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,12 +64,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,20 +136,153 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -580,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19:AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,16 +993,16 @@
         <v>3</v>
       </c>
       <c r="AK2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="3">
         <v>3</v>
@@ -1203,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -1303,8 +1430,8 @@
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
-        <v>8</v>
+      <c r="P5" s="4">
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -1351,8 +1478,8 @@
       <c r="AE5" s="4">
         <v>0</v>
       </c>
-      <c r="AF5" s="9">
-        <v>7</v>
+      <c r="AF5" s="8">
+        <v>1</v>
       </c>
       <c r="AG5" s="5">
         <v>0</v>
@@ -1370,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="5">
         <v>0</v>
@@ -1390,8 +1517,8 @@
       <c r="AR5" s="5">
         <v>0</v>
       </c>
-      <c r="AS5" s="9">
-        <v>8</v>
+      <c r="AS5" s="5">
+        <v>0</v>
       </c>
       <c r="AT5" s="5">
         <v>0</v>
@@ -1470,8 +1597,8 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
-        <v>8</v>
+      <c r="P6" s="4">
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -1483,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
         <v>0</v>
@@ -1513,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
       </c>
       <c r="AG6" s="5">
         <v>0</v>
@@ -1557,8 +1684,8 @@
       <c r="AR6" s="5">
         <v>0</v>
       </c>
-      <c r="AS6" s="9">
-        <v>8</v>
+      <c r="AS6" s="5">
+        <v>0</v>
       </c>
       <c r="AT6" s="5">
         <v>0</v>
@@ -1637,8 +1764,8 @@
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
-        <v>8</v>
+      <c r="P7" s="4">
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1650,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
         <v>0</v>
@@ -1685,7 +1812,7 @@
       <c r="AE7" s="4">
         <v>0</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="8">
         <v>7</v>
       </c>
       <c r="AG7" s="5">
@@ -1724,8 +1851,8 @@
       <c r="AR7" s="5">
         <v>0</v>
       </c>
-      <c r="AS7" s="9">
-        <v>8</v>
+      <c r="AS7" s="5">
+        <v>0</v>
       </c>
       <c r="AT7" s="5">
         <v>0</v>
@@ -1752,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="7">
         <v>1</v>
@@ -1814,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -1852,7 +1979,7 @@
       <c r="AE8" s="4">
         <v>0</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="8">
         <v>7</v>
       </c>
       <c r="AG8" s="5">
@@ -1891,8 +2018,8 @@
       <c r="AR8" s="5">
         <v>0</v>
       </c>
-      <c r="AS8" s="9">
-        <v>8</v>
+      <c r="AS8" s="5">
+        <v>0</v>
       </c>
       <c r="AT8" s="5">
         <v>0</v>
@@ -1981,22 +2108,22 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -2008,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1</v>
       </c>
       <c r="AG9" s="5">
         <v>0</v>
@@ -2058,8 +2185,8 @@
       <c r="AR9" s="5">
         <v>0</v>
       </c>
-      <c r="AS9" s="9">
-        <v>8</v>
+      <c r="AS9" s="5">
+        <v>0</v>
       </c>
       <c r="AT9" s="5">
         <v>0</v>
@@ -2148,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -2163,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
@@ -2186,8 +2313,8 @@
       <c r="AE10" s="4">
         <v>0</v>
       </c>
-      <c r="AF10" s="9">
-        <v>7</v>
+      <c r="AF10" s="8">
+        <v>1</v>
       </c>
       <c r="AG10" s="5">
         <v>0</v>
@@ -2225,8 +2352,8 @@
       <c r="AR10" s="5">
         <v>0</v>
       </c>
-      <c r="AS10" s="9">
-        <v>8</v>
+      <c r="AS10" s="5">
+        <v>0</v>
       </c>
       <c r="AT10" s="5">
         <v>0</v>
@@ -2315,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -2330,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="4">
         <v>0</v>
@@ -2348,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4">
         <v>0</v>
       </c>
-      <c r="AF11" s="9">
-        <v>7</v>
+      <c r="AF11" s="8">
+        <v>1</v>
       </c>
       <c r="AG11" s="5">
         <v>0</v>
@@ -2392,8 +2519,8 @@
       <c r="AR11" s="5">
         <v>0</v>
       </c>
-      <c r="AS11" s="9">
-        <v>8</v>
+      <c r="AS11" s="5">
+        <v>0</v>
       </c>
       <c r="AT11" s="5">
         <v>0</v>
@@ -2482,22 +2609,22 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <v>11</v>
       </c>
       <c r="W12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -3036,17 +3163,17 @@
       <c r="AJ15" s="3">
         <v>1</v>
       </c>
-      <c r="AK15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AL15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AM15" s="9">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="9">
-        <v>8</v>
+      <c r="AK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
       </c>
       <c r="AO15" s="3">
         <v>1</v>
@@ -3641,8 +3768,8 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <v>8</v>
+      <c r="P19" s="4">
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -3689,8 +3816,8 @@
       <c r="AE19" s="4">
         <v>0</v>
       </c>
-      <c r="AF19" s="9">
-        <v>8</v>
+      <c r="AF19" s="4">
+        <v>0</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -3728,8 +3855,8 @@
       <c r="AR19" s="4">
         <v>0</v>
       </c>
-      <c r="AS19" s="9">
-        <v>7</v>
+      <c r="AS19" s="8">
+        <v>13</v>
       </c>
       <c r="AT19" s="4">
         <v>0</v>
@@ -3808,8 +3935,8 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="10">
-        <v>8</v>
+      <c r="P20" s="4">
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -3856,8 +3983,8 @@
       <c r="AE20" s="4">
         <v>0</v>
       </c>
-      <c r="AF20" s="9">
-        <v>8</v>
+      <c r="AF20" s="4">
+        <v>0</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -3895,8 +4022,8 @@
       <c r="AR20" s="4">
         <v>0</v>
       </c>
-      <c r="AS20" s="9">
-        <v>7</v>
+      <c r="AS20" s="8">
+        <v>13</v>
       </c>
       <c r="AT20" s="4">
         <v>0</v>
@@ -3975,8 +4102,8 @@
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <v>8</v>
+      <c r="P21" s="4">
+        <v>0</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -4023,8 +4150,8 @@
       <c r="AE21" s="4">
         <v>0</v>
       </c>
-      <c r="AF21" s="9">
-        <v>8</v>
+      <c r="AF21" s="4">
+        <v>0</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>
@@ -4062,8 +4189,8 @@
       <c r="AR21" s="4">
         <v>0</v>
       </c>
-      <c r="AS21" s="9">
-        <v>7</v>
+      <c r="AS21" s="8">
+        <v>13</v>
       </c>
       <c r="AT21" s="4">
         <v>0</v>
@@ -4142,8 +4269,8 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22" s="10">
-        <v>8</v>
+      <c r="P22" s="4">
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -4190,8 +4317,8 @@
       <c r="AE22" s="4">
         <v>0</v>
       </c>
-      <c r="AF22" s="9">
-        <v>8</v>
+      <c r="AF22" s="4">
+        <v>0</v>
       </c>
       <c r="AG22" s="4">
         <v>0</v>
@@ -4229,8 +4356,8 @@
       <c r="AR22" s="4">
         <v>0</v>
       </c>
-      <c r="AS22" s="9">
-        <v>7</v>
+      <c r="AS22" s="8">
+        <v>13</v>
       </c>
       <c r="AT22" s="4">
         <v>0</v>
@@ -4309,8 +4436,8 @@
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <v>8</v>
+      <c r="P23" s="4">
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -4357,8 +4484,8 @@
       <c r="AE23" s="4">
         <v>0</v>
       </c>
-      <c r="AF23" s="9">
-        <v>8</v>
+      <c r="AF23" s="4">
+        <v>0</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
@@ -4396,8 +4523,8 @@
       <c r="AR23" s="4">
         <v>0</v>
       </c>
-      <c r="AS23" s="9">
-        <v>7</v>
+      <c r="AS23" s="8">
+        <v>13</v>
       </c>
       <c r="AT23" s="4">
         <v>0</v>
@@ -5101,67 +5228,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,11 +143,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -287,6 +304,159 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1139,7 +1309,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS20" sqref="AS20"/>
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4">
         <v>0</v>
@@ -1761,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -2005,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -2557,19 +2727,19 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4">
         <v>1</v>
@@ -2733,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
@@ -3049,31 +3219,31 @@
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
         <v>11</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>0</v>
       </c>
       <c r="AE12" s="4">
         <v>0</v>
@@ -3708,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" s="4">
         <v>3</v>
@@ -3875,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="4">
         <v>3</v>
@@ -4042,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T18" s="4">
         <v>3</v>
@@ -4084,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="4">
         <v>1</v>
@@ -4209,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="4">
         <v>3</v>
@@ -4248,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -4287,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT19" s="4">
         <v>0</v>
@@ -4376,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" s="4">
         <v>3</v>
@@ -4415,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -4454,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="4">
         <v>0</v>
@@ -4543,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" s="4">
         <v>3</v>
@@ -4582,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>
@@ -4621,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT21" s="4">
         <v>0</v>
@@ -4710,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22" s="4">
         <v>3</v>
@@ -4725,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y22" s="4">
         <v>0</v>
@@ -4749,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG22" s="4">
         <v>0</v>
@@ -4788,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT22" s="4">
         <v>0</v>
@@ -4800,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX22" s="4">
         <v>0</v>
@@ -4877,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23" s="4">
         <v>3</v>
@@ -4889,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
@@ -4916,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
@@ -4955,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT23" s="4">
         <v>0</v>
@@ -4970,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="4">
         <v>0</v>
@@ -5044,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" s="4">
         <v>3</v>
@@ -5086,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="4">
         <v>1</v>
@@ -5211,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="4">
         <v>3</v>
@@ -5378,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" s="4">
         <v>3</v>
@@ -5659,68 +5829,73 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,7 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="299">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -301,6 +301,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
@@ -447,6 +457,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
@@ -593,6 +613,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
@@ -739,6 +769,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
@@ -881,6 +921,1413 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1309,7 +2756,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1581,14 +3028,14 @@
       <c r="AF2" s="3">
         <v>1</v>
       </c>
-      <c r="AG2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>0</v>
+      <c r="AG2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>3</v>
       </c>
       <c r="AJ2" s="3">
         <v>3</v>
@@ -1608,14 +3055,14 @@
       <c r="AO2" s="3">
         <v>3</v>
       </c>
-      <c r="AP2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>0</v>
+      <c r="AP2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>3</v>
       </c>
       <c r="AS2" s="3">
         <v>1</v>
@@ -1748,14 +3195,14 @@
       <c r="AF3" s="3">
         <v>1</v>
       </c>
-      <c r="AG3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>0</v>
+      <c r="AG3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>3</v>
       </c>
       <c r="AJ3" s="3">
         <v>3</v>
@@ -1775,14 +3222,14 @@
       <c r="AO3" s="3">
         <v>3</v>
       </c>
-      <c r="AP3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>0</v>
+      <c r="AP3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>3</v>
       </c>
       <c r="AS3" s="3">
         <v>1</v>
@@ -1915,14 +3362,14 @@
       <c r="AF4" s="3">
         <v>1</v>
       </c>
-      <c r="AG4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>0</v>
+      <c r="AG4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>3</v>
       </c>
       <c r="AJ4" s="3">
         <v>3</v>
@@ -1942,14 +3389,14 @@
       <c r="AO4" s="3">
         <v>3</v>
       </c>
-      <c r="AP4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>0</v>
+      <c r="AP4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>3</v>
       </c>
       <c r="AS4" s="3">
         <v>1</v>
@@ -2082,14 +3529,14 @@
       <c r="AF5" s="8">
         <v>1</v>
       </c>
-      <c r="AG5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>0</v>
+      <c r="AG5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>3</v>
       </c>
       <c r="AJ5" s="3">
         <v>3</v>
@@ -2109,17 +3556,17 @@
       <c r="AO5" s="3">
         <v>3</v>
       </c>
-      <c r="AP5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>0</v>
+      <c r="AP5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>1</v>
       </c>
       <c r="AT5" s="5">
         <v>0</v>
@@ -2249,44 +3696,44 @@
       <c r="AF6" s="8">
         <v>1</v>
       </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>0</v>
+      <c r="AG6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>3</v>
       </c>
       <c r="AJ6" s="3">
         <v>3</v>
       </c>
-      <c r="AK6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>0</v>
+      <c r="AK6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>3</v>
       </c>
       <c r="AO6" s="3">
         <v>3</v>
       </c>
-      <c r="AP6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="5">
-        <v>0</v>
+      <c r="AP6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>1</v>
       </c>
       <c r="AT6" s="5">
         <v>0</v>
@@ -2425,23 +3872,23 @@
       <c r="AI7" s="5">
         <v>0</v>
       </c>
-      <c r="AJ7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>3</v>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>0</v>
       </c>
       <c r="AP7" s="5">
         <v>0</v>
@@ -3003,11 +4450,11 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3158,17 +4605,17 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -3176,29 +4623,29 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
       </c>
       <c r="P12" s="3">
         <v>1</v>
@@ -3325,17 +4772,17 @@
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -3343,29 +4790,29 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
       </c>
       <c r="P13" s="3">
         <v>1</v>
@@ -3492,17 +4939,17 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -3510,29 +4957,29 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
       </c>
       <c r="P14" s="3">
         <v>1</v>
@@ -3659,17 +5106,17 @@
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -3677,29 +5124,29 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>1</v>
@@ -3826,17 +5273,17 @@
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -3844,29 +5291,29 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
       </c>
       <c r="P16" s="3">
         <v>1</v>
@@ -3993,17 +5440,17 @@
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -4011,29 +5458,29 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>1</v>
@@ -4160,17 +5607,17 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -4178,29 +5625,29 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
       </c>
       <c r="P18" s="3">
         <v>1</v>
@@ -4495,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -4662,49 +6109,49 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -4829,49 +6276,49 @@
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -4996,49 +6443,49 @@
         <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -5163,48 +6610,48 @@
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
         <v>1</v>
       </c>
       <c r="Q24" s="4">
@@ -5330,48 +6777,48 @@
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
         <v>1</v>
       </c>
       <c r="Q25" s="4">
@@ -5497,48 +6944,48 @@
         <v>1</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
         <v>1</v>
       </c>
       <c r="Q26" s="4">
@@ -5829,72 +7276,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+  <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
+    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,2184 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="299">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2753,18 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="55" width="2.25" customWidth="1"/>
+    <col min="1" max="65" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2930,8 +753,38 @@
       <c r="BC1" s="2">
         <v>1</v>
       </c>
+      <c r="BD1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM1" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3097,8 +950,38 @@
       <c r="BC2" s="7">
         <v>1</v>
       </c>
+      <c r="BD2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3264,8 +1147,38 @@
       <c r="BC3" s="7">
         <v>1</v>
       </c>
+      <c r="BD3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3431,8 +1344,38 @@
       <c r="BC4" s="7">
         <v>1</v>
       </c>
+      <c r="BD4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3598,8 +1541,38 @@
       <c r="BC5" s="7">
         <v>1</v>
       </c>
+      <c r="BD5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3613,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -3765,8 +1738,38 @@
       <c r="BC6" s="7">
         <v>1</v>
       </c>
+      <c r="BD6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3932,8 +1935,38 @@
       <c r="BC7" s="7">
         <v>1</v>
       </c>
+      <c r="BD7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4099,8 +2132,38 @@
       <c r="BC8" s="7">
         <v>1</v>
       </c>
+      <c r="BD8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4266,8 +2329,38 @@
       <c r="BC9" s="7">
         <v>1</v>
       </c>
+      <c r="BD9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4433,8 +2526,38 @@
       <c r="BC10" s="7">
         <v>1</v>
       </c>
+      <c r="BD10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -4600,8 +2723,38 @@
       <c r="BC11" s="7">
         <v>1</v>
       </c>
+      <c r="BD11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -4767,8 +2920,38 @@
       <c r="BC12" s="7">
         <v>1</v>
       </c>
+      <c r="BD12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM12" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4934,8 +3117,38 @@
       <c r="BC13" s="7">
         <v>1</v>
       </c>
+      <c r="BD13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM13" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -5101,8 +3314,38 @@
       <c r="BC14" s="7">
         <v>1</v>
       </c>
+      <c r="BD14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM14" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -5268,8 +3511,38 @@
       <c r="BC15" s="7">
         <v>1</v>
       </c>
+      <c r="BD15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM15" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -5435,8 +3708,38 @@
       <c r="BC16" s="7">
         <v>1</v>
       </c>
+      <c r="BD16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM16" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -5602,8 +3905,38 @@
       <c r="BC17" s="7">
         <v>1</v>
       </c>
+      <c r="BD17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM17" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -5769,8 +4102,38 @@
       <c r="BC18" s="7">
         <v>1</v>
       </c>
+      <c r="BD18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM18" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -5936,8 +4299,38 @@
       <c r="BC19" s="7">
         <v>1</v>
       </c>
+      <c r="BD19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM19" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -6103,8 +4496,38 @@
       <c r="BC20" s="7">
         <v>1</v>
       </c>
+      <c r="BD20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM20" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -6270,8 +4693,38 @@
       <c r="BC21" s="7">
         <v>1</v>
       </c>
+      <c r="BD21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM21" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -6437,8 +4890,38 @@
       <c r="BC22" s="7">
         <v>1</v>
       </c>
+      <c r="BD22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM22" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -6604,8 +5087,38 @@
       <c r="BC23" s="7">
         <v>1</v>
       </c>
+      <c r="BD23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM23" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -6771,8 +5284,38 @@
       <c r="BC24" s="7">
         <v>1</v>
       </c>
+      <c r="BD24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM24" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -6938,8 +5481,38 @@
       <c r="BC25" s="7">
         <v>1</v>
       </c>
+      <c r="BD25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM25" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -7105,8 +5678,38 @@
       <c r="BC26" s="7">
         <v>1</v>
       </c>
+      <c r="BD26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM26" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -7271,77 +5874,2274 @@
       </c>
       <c r="BC27" s="7">
         <v>1</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM27" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4">
+        <v>99</v>
+      </c>
+      <c r="D28" s="4">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4">
+        <v>99</v>
+      </c>
+      <c r="F28" s="4">
+        <v>99</v>
+      </c>
+      <c r="G28" s="4">
+        <v>99</v>
+      </c>
+      <c r="H28" s="4">
+        <v>99</v>
+      </c>
+      <c r="I28" s="4">
+        <v>99</v>
+      </c>
+      <c r="J28" s="4">
+        <v>99</v>
+      </c>
+      <c r="K28" s="4">
+        <v>99</v>
+      </c>
+      <c r="L28" s="4">
+        <v>99</v>
+      </c>
+      <c r="M28" s="4">
+        <v>99</v>
+      </c>
+      <c r="N28" s="4">
+        <v>99</v>
+      </c>
+      <c r="O28" s="4">
+        <v>99</v>
+      </c>
+      <c r="P28" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>99</v>
+      </c>
+      <c r="R28" s="4">
+        <v>99</v>
+      </c>
+      <c r="S28" s="4">
+        <v>99</v>
+      </c>
+      <c r="T28" s="4">
+        <v>99</v>
+      </c>
+      <c r="U28" s="4">
+        <v>99</v>
+      </c>
+      <c r="V28" s="4">
+        <v>99</v>
+      </c>
+      <c r="W28" s="4">
+        <v>99</v>
+      </c>
+      <c r="X28" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM28" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4">
+        <v>99</v>
+      </c>
+      <c r="C29" s="4">
+        <v>99</v>
+      </c>
+      <c r="D29" s="4">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4">
+        <v>99</v>
+      </c>
+      <c r="F29" s="4">
+        <v>99</v>
+      </c>
+      <c r="G29" s="4">
+        <v>99</v>
+      </c>
+      <c r="H29" s="4">
+        <v>99</v>
+      </c>
+      <c r="I29" s="4">
+        <v>99</v>
+      </c>
+      <c r="J29" s="4">
+        <v>99</v>
+      </c>
+      <c r="K29" s="4">
+        <v>99</v>
+      </c>
+      <c r="L29" s="4">
+        <v>99</v>
+      </c>
+      <c r="M29" s="4">
+        <v>99</v>
+      </c>
+      <c r="N29" s="4">
+        <v>99</v>
+      </c>
+      <c r="O29" s="4">
+        <v>99</v>
+      </c>
+      <c r="P29" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>99</v>
+      </c>
+      <c r="R29" s="4">
+        <v>99</v>
+      </c>
+      <c r="S29" s="4">
+        <v>99</v>
+      </c>
+      <c r="T29" s="4">
+        <v>99</v>
+      </c>
+      <c r="U29" s="4">
+        <v>99</v>
+      </c>
+      <c r="V29" s="4">
+        <v>99</v>
+      </c>
+      <c r="W29" s="4">
+        <v>99</v>
+      </c>
+      <c r="X29" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM29" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>99</v>
+      </c>
+      <c r="B30" s="4">
+        <v>99</v>
+      </c>
+      <c r="C30" s="4">
+        <v>99</v>
+      </c>
+      <c r="D30" s="4">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4">
+        <v>99</v>
+      </c>
+      <c r="F30" s="4">
+        <v>99</v>
+      </c>
+      <c r="G30" s="4">
+        <v>99</v>
+      </c>
+      <c r="H30" s="4">
+        <v>99</v>
+      </c>
+      <c r="I30" s="4">
+        <v>99</v>
+      </c>
+      <c r="J30" s="4">
+        <v>99</v>
+      </c>
+      <c r="K30" s="4">
+        <v>99</v>
+      </c>
+      <c r="L30" s="4">
+        <v>99</v>
+      </c>
+      <c r="M30" s="4">
+        <v>99</v>
+      </c>
+      <c r="N30" s="4">
+        <v>99</v>
+      </c>
+      <c r="O30" s="4">
+        <v>99</v>
+      </c>
+      <c r="P30" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>99</v>
+      </c>
+      <c r="R30" s="4">
+        <v>99</v>
+      </c>
+      <c r="S30" s="4">
+        <v>99</v>
+      </c>
+      <c r="T30" s="4">
+        <v>99</v>
+      </c>
+      <c r="U30" s="4">
+        <v>99</v>
+      </c>
+      <c r="V30" s="4">
+        <v>99</v>
+      </c>
+      <c r="W30" s="4">
+        <v>99</v>
+      </c>
+      <c r="X30" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM30" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4">
+        <v>99</v>
+      </c>
+      <c r="C31" s="4">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4">
+        <v>99</v>
+      </c>
+      <c r="E31" s="4">
+        <v>99</v>
+      </c>
+      <c r="F31" s="4">
+        <v>99</v>
+      </c>
+      <c r="G31" s="4">
+        <v>99</v>
+      </c>
+      <c r="H31" s="4">
+        <v>99</v>
+      </c>
+      <c r="I31" s="4">
+        <v>99</v>
+      </c>
+      <c r="J31" s="4">
+        <v>99</v>
+      </c>
+      <c r="K31" s="4">
+        <v>99</v>
+      </c>
+      <c r="L31" s="4">
+        <v>99</v>
+      </c>
+      <c r="M31" s="4">
+        <v>99</v>
+      </c>
+      <c r="N31" s="4">
+        <v>99</v>
+      </c>
+      <c r="O31" s="4">
+        <v>99</v>
+      </c>
+      <c r="P31" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>99</v>
+      </c>
+      <c r="R31" s="4">
+        <v>99</v>
+      </c>
+      <c r="S31" s="4">
+        <v>99</v>
+      </c>
+      <c r="T31" s="4">
+        <v>99</v>
+      </c>
+      <c r="U31" s="4">
+        <v>99</v>
+      </c>
+      <c r="V31" s="4">
+        <v>99</v>
+      </c>
+      <c r="W31" s="4">
+        <v>99</v>
+      </c>
+      <c r="X31" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM31" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4">
+        <v>99</v>
+      </c>
+      <c r="C32" s="4">
+        <v>99</v>
+      </c>
+      <c r="D32" s="4">
+        <v>99</v>
+      </c>
+      <c r="E32" s="4">
+        <v>99</v>
+      </c>
+      <c r="F32" s="4">
+        <v>99</v>
+      </c>
+      <c r="G32" s="4">
+        <v>99</v>
+      </c>
+      <c r="H32" s="4">
+        <v>99</v>
+      </c>
+      <c r="I32" s="4">
+        <v>99</v>
+      </c>
+      <c r="J32" s="4">
+        <v>99</v>
+      </c>
+      <c r="K32" s="4">
+        <v>99</v>
+      </c>
+      <c r="L32" s="4">
+        <v>99</v>
+      </c>
+      <c r="M32" s="4">
+        <v>99</v>
+      </c>
+      <c r="N32" s="4">
+        <v>99</v>
+      </c>
+      <c r="O32" s="4">
+        <v>99</v>
+      </c>
+      <c r="P32" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>99</v>
+      </c>
+      <c r="R32" s="4">
+        <v>99</v>
+      </c>
+      <c r="S32" s="4">
+        <v>99</v>
+      </c>
+      <c r="T32" s="4">
+        <v>99</v>
+      </c>
+      <c r="U32" s="4">
+        <v>99</v>
+      </c>
+      <c r="V32" s="4">
+        <v>99</v>
+      </c>
+      <c r="W32" s="4">
+        <v>99</v>
+      </c>
+      <c r="X32" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM32" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4">
+        <v>99</v>
+      </c>
+      <c r="D33" s="4">
+        <v>99</v>
+      </c>
+      <c r="E33" s="4">
+        <v>99</v>
+      </c>
+      <c r="F33" s="4">
+        <v>99</v>
+      </c>
+      <c r="G33" s="4">
+        <v>99</v>
+      </c>
+      <c r="H33" s="4">
+        <v>99</v>
+      </c>
+      <c r="I33" s="4">
+        <v>99</v>
+      </c>
+      <c r="J33" s="4">
+        <v>99</v>
+      </c>
+      <c r="K33" s="4">
+        <v>99</v>
+      </c>
+      <c r="L33" s="4">
+        <v>99</v>
+      </c>
+      <c r="M33" s="4">
+        <v>99</v>
+      </c>
+      <c r="N33" s="4">
+        <v>99</v>
+      </c>
+      <c r="O33" s="4">
+        <v>99</v>
+      </c>
+      <c r="P33" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>99</v>
+      </c>
+      <c r="R33" s="4">
+        <v>99</v>
+      </c>
+      <c r="S33" s="4">
+        <v>99</v>
+      </c>
+      <c r="T33" s="4">
+        <v>99</v>
+      </c>
+      <c r="U33" s="4">
+        <v>99</v>
+      </c>
+      <c r="V33" s="4">
+        <v>99</v>
+      </c>
+      <c r="W33" s="4">
+        <v>99</v>
+      </c>
+      <c r="X33" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM33" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4">
+        <v>99</v>
+      </c>
+      <c r="F34" s="4">
+        <v>99</v>
+      </c>
+      <c r="G34" s="4">
+        <v>99</v>
+      </c>
+      <c r="H34" s="4">
+        <v>99</v>
+      </c>
+      <c r="I34" s="4">
+        <v>99</v>
+      </c>
+      <c r="J34" s="4">
+        <v>99</v>
+      </c>
+      <c r="K34" s="4">
+        <v>99</v>
+      </c>
+      <c r="L34" s="4">
+        <v>99</v>
+      </c>
+      <c r="M34" s="4">
+        <v>99</v>
+      </c>
+      <c r="N34" s="4">
+        <v>99</v>
+      </c>
+      <c r="O34" s="4">
+        <v>99</v>
+      </c>
+      <c r="P34" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>99</v>
+      </c>
+      <c r="R34" s="4">
+        <v>99</v>
+      </c>
+      <c r="S34" s="4">
+        <v>99</v>
+      </c>
+      <c r="T34" s="4">
+        <v>99</v>
+      </c>
+      <c r="U34" s="4">
+        <v>99</v>
+      </c>
+      <c r="V34" s="4">
+        <v>99</v>
+      </c>
+      <c r="W34" s="4">
+        <v>99</v>
+      </c>
+      <c r="X34" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM34" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>99</v>
+      </c>
+      <c r="B35" s="4">
+        <v>99</v>
+      </c>
+      <c r="C35" s="4">
+        <v>99</v>
+      </c>
+      <c r="D35" s="4">
+        <v>99</v>
+      </c>
+      <c r="E35" s="4">
+        <v>99</v>
+      </c>
+      <c r="F35" s="4">
+        <v>99</v>
+      </c>
+      <c r="G35" s="4">
+        <v>99</v>
+      </c>
+      <c r="H35" s="4">
+        <v>99</v>
+      </c>
+      <c r="I35" s="4">
+        <v>99</v>
+      </c>
+      <c r="J35" s="4">
+        <v>99</v>
+      </c>
+      <c r="K35" s="4">
+        <v>99</v>
+      </c>
+      <c r="L35" s="4">
+        <v>99</v>
+      </c>
+      <c r="M35" s="4">
+        <v>99</v>
+      </c>
+      <c r="N35" s="4">
+        <v>99</v>
+      </c>
+      <c r="O35" s="4">
+        <v>99</v>
+      </c>
+      <c r="P35" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>99</v>
+      </c>
+      <c r="R35" s="4">
+        <v>99</v>
+      </c>
+      <c r="S35" s="4">
+        <v>99</v>
+      </c>
+      <c r="T35" s="4">
+        <v>99</v>
+      </c>
+      <c r="U35" s="4">
+        <v>99</v>
+      </c>
+      <c r="V35" s="4">
+        <v>99</v>
+      </c>
+      <c r="W35" s="4">
+        <v>99</v>
+      </c>
+      <c r="X35" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM35" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>99</v>
+      </c>
+      <c r="B36" s="4">
+        <v>99</v>
+      </c>
+      <c r="C36" s="4">
+        <v>99</v>
+      </c>
+      <c r="D36" s="4">
+        <v>99</v>
+      </c>
+      <c r="E36" s="4">
+        <v>99</v>
+      </c>
+      <c r="F36" s="4">
+        <v>99</v>
+      </c>
+      <c r="G36" s="4">
+        <v>99</v>
+      </c>
+      <c r="H36" s="4">
+        <v>99</v>
+      </c>
+      <c r="I36" s="4">
+        <v>99</v>
+      </c>
+      <c r="J36" s="4">
+        <v>99</v>
+      </c>
+      <c r="K36" s="4">
+        <v>99</v>
+      </c>
+      <c r="L36" s="4">
+        <v>99</v>
+      </c>
+      <c r="M36" s="4">
+        <v>99</v>
+      </c>
+      <c r="N36" s="4">
+        <v>99</v>
+      </c>
+      <c r="O36" s="4">
+        <v>99</v>
+      </c>
+      <c r="P36" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>99</v>
+      </c>
+      <c r="R36" s="4">
+        <v>99</v>
+      </c>
+      <c r="S36" s="4">
+        <v>99</v>
+      </c>
+      <c r="T36" s="4">
+        <v>99</v>
+      </c>
+      <c r="U36" s="4">
+        <v>99</v>
+      </c>
+      <c r="V36" s="4">
+        <v>99</v>
+      </c>
+      <c r="W36" s="4">
+        <v>99</v>
+      </c>
+      <c r="X36" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM36" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4">
+        <v>99</v>
+      </c>
+      <c r="D37" s="4">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4">
+        <v>99</v>
+      </c>
+      <c r="F37" s="4">
+        <v>99</v>
+      </c>
+      <c r="G37" s="4">
+        <v>99</v>
+      </c>
+      <c r="H37" s="4">
+        <v>99</v>
+      </c>
+      <c r="I37" s="4">
+        <v>99</v>
+      </c>
+      <c r="J37" s="4">
+        <v>99</v>
+      </c>
+      <c r="K37" s="4">
+        <v>99</v>
+      </c>
+      <c r="L37" s="4">
+        <v>99</v>
+      </c>
+      <c r="M37" s="4">
+        <v>99</v>
+      </c>
+      <c r="N37" s="4">
+        <v>99</v>
+      </c>
+      <c r="O37" s="4">
+        <v>99</v>
+      </c>
+      <c r="P37" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>99</v>
+      </c>
+      <c r="R37" s="4">
+        <v>99</v>
+      </c>
+      <c r="S37" s="4">
+        <v>99</v>
+      </c>
+      <c r="T37" s="4">
+        <v>99</v>
+      </c>
+      <c r="U37" s="4">
+        <v>99</v>
+      </c>
+      <c r="V37" s="4">
+        <v>99</v>
+      </c>
+      <c r="W37" s="4">
+        <v>99</v>
+      </c>
+      <c r="X37" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM37" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>99</v>
+      </c>
+      <c r="B38" s="4">
+        <v>99</v>
+      </c>
+      <c r="C38" s="4">
+        <v>99</v>
+      </c>
+      <c r="D38" s="4">
+        <v>99</v>
+      </c>
+      <c r="E38" s="4">
+        <v>99</v>
+      </c>
+      <c r="F38" s="4">
+        <v>99</v>
+      </c>
+      <c r="G38" s="4">
+        <v>99</v>
+      </c>
+      <c r="H38" s="4">
+        <v>99</v>
+      </c>
+      <c r="I38" s="4">
+        <v>99</v>
+      </c>
+      <c r="J38" s="4">
+        <v>99</v>
+      </c>
+      <c r="K38" s="4">
+        <v>99</v>
+      </c>
+      <c r="L38" s="4">
+        <v>99</v>
+      </c>
+      <c r="M38" s="4">
+        <v>99</v>
+      </c>
+      <c r="N38" s="4">
+        <v>99</v>
+      </c>
+      <c r="O38" s="4">
+        <v>99</v>
+      </c>
+      <c r="P38" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>99</v>
+      </c>
+      <c r="R38" s="4">
+        <v>99</v>
+      </c>
+      <c r="S38" s="4">
+        <v>99</v>
+      </c>
+      <c r="T38" s="4">
+        <v>99</v>
+      </c>
+      <c r="U38" s="4">
+        <v>99</v>
+      </c>
+      <c r="V38" s="4">
+        <v>99</v>
+      </c>
+      <c r="W38" s="4">
+        <v>99</v>
+      </c>
+      <c r="X38" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM38" s="4">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="183" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="181" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="180" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="BS41" sqref="BS41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,163 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -579,7 +735,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BS41" sqref="BS41"/>
+      <selection activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5215,13 +5371,13 @@
       <c r="AF24" s="3">
         <v>1</v>
       </c>
-      <c r="AG24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="4">
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="3">
         <v>1</v>
       </c>
       <c r="AJ24" s="4">
@@ -5412,17 +5568,17 @@
       <c r="AF25" s="3">
         <v>1</v>
       </c>
-      <c r="AG25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>0</v>
+      <c r="AG25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>1</v>
       </c>
       <c r="AJ25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="4">
         <v>0</v>
@@ -5609,14 +5765,14 @@
       <c r="AF26" s="3">
         <v>1</v>
       </c>
-      <c r="AG26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>0</v>
+      <c r="AG26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>1</v>
       </c>
       <c r="AJ26" s="4">
         <v>0</v>
@@ -8076,72 +8232,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,2184 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="299">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2753,18 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BS41" sqref="BS41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="55" width="2.25" customWidth="1"/>
+    <col min="1" max="65" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2930,8 +753,38 @@
       <c r="BC1" s="2">
         <v>1</v>
       </c>
+      <c r="BD1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL1" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM1" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3097,8 +950,38 @@
       <c r="BC2" s="7">
         <v>1</v>
       </c>
+      <c r="BD2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3106,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3264,8 +1147,38 @@
       <c r="BC3" s="7">
         <v>1</v>
       </c>
+      <c r="BD3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3431,8 +1344,38 @@
       <c r="BC4" s="7">
         <v>1</v>
       </c>
+      <c r="BD4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3598,8 +1541,38 @@
       <c r="BC5" s="7">
         <v>1</v>
       </c>
+      <c r="BD5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3765,8 +1738,38 @@
       <c r="BC6" s="7">
         <v>1</v>
       </c>
+      <c r="BD6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3932,8 +1935,38 @@
       <c r="BC7" s="7">
         <v>1</v>
       </c>
+      <c r="BD7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4099,8 +2132,38 @@
       <c r="BC8" s="7">
         <v>1</v>
       </c>
+      <c r="BD8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4266,8 +2329,38 @@
       <c r="BC9" s="7">
         <v>1</v>
       </c>
+      <c r="BD9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4433,8 +2526,38 @@
       <c r="BC10" s="7">
         <v>1</v>
       </c>
+      <c r="BD10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -4600,8 +2723,38 @@
       <c r="BC11" s="7">
         <v>1</v>
       </c>
+      <c r="BD11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -4767,8 +2920,38 @@
       <c r="BC12" s="7">
         <v>1</v>
       </c>
+      <c r="BD12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL12" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM12" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4934,8 +3117,38 @@
       <c r="BC13" s="7">
         <v>1</v>
       </c>
+      <c r="BD13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL13" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM13" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -5101,8 +3314,38 @@
       <c r="BC14" s="7">
         <v>1</v>
       </c>
+      <c r="BD14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL14" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM14" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -5268,8 +3511,38 @@
       <c r="BC15" s="7">
         <v>1</v>
       </c>
+      <c r="BD15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL15" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM15" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -5435,8 +3708,38 @@
       <c r="BC16" s="7">
         <v>1</v>
       </c>
+      <c r="BD16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL16" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM16" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -5602,8 +3905,38 @@
       <c r="BC17" s="7">
         <v>1</v>
       </c>
+      <c r="BD17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL17" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM17" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -5769,8 +4102,38 @@
       <c r="BC18" s="7">
         <v>1</v>
       </c>
+      <c r="BD18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL18" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM18" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -5936,8 +4299,38 @@
       <c r="BC19" s="7">
         <v>1</v>
       </c>
+      <c r="BD19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL19" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM19" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -6103,8 +4496,38 @@
       <c r="BC20" s="7">
         <v>1</v>
       </c>
+      <c r="BD20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL20" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM20" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -6270,8 +4693,38 @@
       <c r="BC21" s="7">
         <v>1</v>
       </c>
+      <c r="BD21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL21" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM21" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -6437,8 +4890,38 @@
       <c r="BC22" s="7">
         <v>1</v>
       </c>
+      <c r="BD22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL22" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM22" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -6604,8 +5087,38 @@
       <c r="BC23" s="7">
         <v>1</v>
       </c>
+      <c r="BD23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM23" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -6771,8 +5284,38 @@
       <c r="BC24" s="7">
         <v>1</v>
       </c>
+      <c r="BD24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL24" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM24" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -6938,8 +5481,38 @@
       <c r="BC25" s="7">
         <v>1</v>
       </c>
+      <c r="BD25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM25" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -7105,8 +5678,38 @@
       <c r="BC26" s="7">
         <v>1</v>
       </c>
+      <c r="BD26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL26" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM26" s="4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -7271,77 +5874,2274 @@
       </c>
       <c r="BC27" s="7">
         <v>1</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL27" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM27" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4">
+        <v>99</v>
+      </c>
+      <c r="D28" s="4">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4">
+        <v>99</v>
+      </c>
+      <c r="F28" s="4">
+        <v>99</v>
+      </c>
+      <c r="G28" s="4">
+        <v>99</v>
+      </c>
+      <c r="H28" s="4">
+        <v>99</v>
+      </c>
+      <c r="I28" s="4">
+        <v>99</v>
+      </c>
+      <c r="J28" s="4">
+        <v>99</v>
+      </c>
+      <c r="K28" s="4">
+        <v>99</v>
+      </c>
+      <c r="L28" s="4">
+        <v>99</v>
+      </c>
+      <c r="M28" s="4">
+        <v>99</v>
+      </c>
+      <c r="N28" s="4">
+        <v>99</v>
+      </c>
+      <c r="O28" s="4">
+        <v>99</v>
+      </c>
+      <c r="P28" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>99</v>
+      </c>
+      <c r="R28" s="4">
+        <v>99</v>
+      </c>
+      <c r="S28" s="4">
+        <v>99</v>
+      </c>
+      <c r="T28" s="4">
+        <v>99</v>
+      </c>
+      <c r="U28" s="4">
+        <v>99</v>
+      </c>
+      <c r="V28" s="4">
+        <v>99</v>
+      </c>
+      <c r="W28" s="4">
+        <v>99</v>
+      </c>
+      <c r="X28" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL28" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM28" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4">
+        <v>99</v>
+      </c>
+      <c r="C29" s="4">
+        <v>99</v>
+      </c>
+      <c r="D29" s="4">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4">
+        <v>99</v>
+      </c>
+      <c r="F29" s="4">
+        <v>99</v>
+      </c>
+      <c r="G29" s="4">
+        <v>99</v>
+      </c>
+      <c r="H29" s="4">
+        <v>99</v>
+      </c>
+      <c r="I29" s="4">
+        <v>99</v>
+      </c>
+      <c r="J29" s="4">
+        <v>99</v>
+      </c>
+      <c r="K29" s="4">
+        <v>99</v>
+      </c>
+      <c r="L29" s="4">
+        <v>99</v>
+      </c>
+      <c r="M29" s="4">
+        <v>99</v>
+      </c>
+      <c r="N29" s="4">
+        <v>99</v>
+      </c>
+      <c r="O29" s="4">
+        <v>99</v>
+      </c>
+      <c r="P29" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>99</v>
+      </c>
+      <c r="R29" s="4">
+        <v>99</v>
+      </c>
+      <c r="S29" s="4">
+        <v>99</v>
+      </c>
+      <c r="T29" s="4">
+        <v>99</v>
+      </c>
+      <c r="U29" s="4">
+        <v>99</v>
+      </c>
+      <c r="V29" s="4">
+        <v>99</v>
+      </c>
+      <c r="W29" s="4">
+        <v>99</v>
+      </c>
+      <c r="X29" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL29" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM29" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>99</v>
+      </c>
+      <c r="B30" s="4">
+        <v>99</v>
+      </c>
+      <c r="C30" s="4">
+        <v>99</v>
+      </c>
+      <c r="D30" s="4">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4">
+        <v>99</v>
+      </c>
+      <c r="F30" s="4">
+        <v>99</v>
+      </c>
+      <c r="G30" s="4">
+        <v>99</v>
+      </c>
+      <c r="H30" s="4">
+        <v>99</v>
+      </c>
+      <c r="I30" s="4">
+        <v>99</v>
+      </c>
+      <c r="J30" s="4">
+        <v>99</v>
+      </c>
+      <c r="K30" s="4">
+        <v>99</v>
+      </c>
+      <c r="L30" s="4">
+        <v>99</v>
+      </c>
+      <c r="M30" s="4">
+        <v>99</v>
+      </c>
+      <c r="N30" s="4">
+        <v>99</v>
+      </c>
+      <c r="O30" s="4">
+        <v>99</v>
+      </c>
+      <c r="P30" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>99</v>
+      </c>
+      <c r="R30" s="4">
+        <v>99</v>
+      </c>
+      <c r="S30" s="4">
+        <v>99</v>
+      </c>
+      <c r="T30" s="4">
+        <v>99</v>
+      </c>
+      <c r="U30" s="4">
+        <v>99</v>
+      </c>
+      <c r="V30" s="4">
+        <v>99</v>
+      </c>
+      <c r="W30" s="4">
+        <v>99</v>
+      </c>
+      <c r="X30" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL30" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM30" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4">
+        <v>99</v>
+      </c>
+      <c r="C31" s="4">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4">
+        <v>99</v>
+      </c>
+      <c r="E31" s="4">
+        <v>99</v>
+      </c>
+      <c r="F31" s="4">
+        <v>99</v>
+      </c>
+      <c r="G31" s="4">
+        <v>99</v>
+      </c>
+      <c r="H31" s="4">
+        <v>99</v>
+      </c>
+      <c r="I31" s="4">
+        <v>99</v>
+      </c>
+      <c r="J31" s="4">
+        <v>99</v>
+      </c>
+      <c r="K31" s="4">
+        <v>99</v>
+      </c>
+      <c r="L31" s="4">
+        <v>99</v>
+      </c>
+      <c r="M31" s="4">
+        <v>99</v>
+      </c>
+      <c r="N31" s="4">
+        <v>99</v>
+      </c>
+      <c r="O31" s="4">
+        <v>99</v>
+      </c>
+      <c r="P31" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>99</v>
+      </c>
+      <c r="R31" s="4">
+        <v>99</v>
+      </c>
+      <c r="S31" s="4">
+        <v>99</v>
+      </c>
+      <c r="T31" s="4">
+        <v>99</v>
+      </c>
+      <c r="U31" s="4">
+        <v>99</v>
+      </c>
+      <c r="V31" s="4">
+        <v>99</v>
+      </c>
+      <c r="W31" s="4">
+        <v>99</v>
+      </c>
+      <c r="X31" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL31" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM31" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4">
+        <v>99</v>
+      </c>
+      <c r="C32" s="4">
+        <v>99</v>
+      </c>
+      <c r="D32" s="4">
+        <v>99</v>
+      </c>
+      <c r="E32" s="4">
+        <v>99</v>
+      </c>
+      <c r="F32" s="4">
+        <v>99</v>
+      </c>
+      <c r="G32" s="4">
+        <v>99</v>
+      </c>
+      <c r="H32" s="4">
+        <v>99</v>
+      </c>
+      <c r="I32" s="4">
+        <v>99</v>
+      </c>
+      <c r="J32" s="4">
+        <v>99</v>
+      </c>
+      <c r="K32" s="4">
+        <v>99</v>
+      </c>
+      <c r="L32" s="4">
+        <v>99</v>
+      </c>
+      <c r="M32" s="4">
+        <v>99</v>
+      </c>
+      <c r="N32" s="4">
+        <v>99</v>
+      </c>
+      <c r="O32" s="4">
+        <v>99</v>
+      </c>
+      <c r="P32" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>99</v>
+      </c>
+      <c r="R32" s="4">
+        <v>99</v>
+      </c>
+      <c r="S32" s="4">
+        <v>99</v>
+      </c>
+      <c r="T32" s="4">
+        <v>99</v>
+      </c>
+      <c r="U32" s="4">
+        <v>99</v>
+      </c>
+      <c r="V32" s="4">
+        <v>99</v>
+      </c>
+      <c r="W32" s="4">
+        <v>99</v>
+      </c>
+      <c r="X32" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL32" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM32" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4">
+        <v>99</v>
+      </c>
+      <c r="D33" s="4">
+        <v>99</v>
+      </c>
+      <c r="E33" s="4">
+        <v>99</v>
+      </c>
+      <c r="F33" s="4">
+        <v>99</v>
+      </c>
+      <c r="G33" s="4">
+        <v>99</v>
+      </c>
+      <c r="H33" s="4">
+        <v>99</v>
+      </c>
+      <c r="I33" s="4">
+        <v>99</v>
+      </c>
+      <c r="J33" s="4">
+        <v>99</v>
+      </c>
+      <c r="K33" s="4">
+        <v>99</v>
+      </c>
+      <c r="L33" s="4">
+        <v>99</v>
+      </c>
+      <c r="M33" s="4">
+        <v>99</v>
+      </c>
+      <c r="N33" s="4">
+        <v>99</v>
+      </c>
+      <c r="O33" s="4">
+        <v>99</v>
+      </c>
+      <c r="P33" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>99</v>
+      </c>
+      <c r="R33" s="4">
+        <v>99</v>
+      </c>
+      <c r="S33" s="4">
+        <v>99</v>
+      </c>
+      <c r="T33" s="4">
+        <v>99</v>
+      </c>
+      <c r="U33" s="4">
+        <v>99</v>
+      </c>
+      <c r="V33" s="4">
+        <v>99</v>
+      </c>
+      <c r="W33" s="4">
+        <v>99</v>
+      </c>
+      <c r="X33" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL33" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM33" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4">
+        <v>99</v>
+      </c>
+      <c r="F34" s="4">
+        <v>99</v>
+      </c>
+      <c r="G34" s="4">
+        <v>99</v>
+      </c>
+      <c r="H34" s="4">
+        <v>99</v>
+      </c>
+      <c r="I34" s="4">
+        <v>99</v>
+      </c>
+      <c r="J34" s="4">
+        <v>99</v>
+      </c>
+      <c r="K34" s="4">
+        <v>99</v>
+      </c>
+      <c r="L34" s="4">
+        <v>99</v>
+      </c>
+      <c r="M34" s="4">
+        <v>99</v>
+      </c>
+      <c r="N34" s="4">
+        <v>99</v>
+      </c>
+      <c r="O34" s="4">
+        <v>99</v>
+      </c>
+      <c r="P34" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>99</v>
+      </c>
+      <c r="R34" s="4">
+        <v>99</v>
+      </c>
+      <c r="S34" s="4">
+        <v>99</v>
+      </c>
+      <c r="T34" s="4">
+        <v>99</v>
+      </c>
+      <c r="U34" s="4">
+        <v>99</v>
+      </c>
+      <c r="V34" s="4">
+        <v>99</v>
+      </c>
+      <c r="W34" s="4">
+        <v>99</v>
+      </c>
+      <c r="X34" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL34" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM34" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>99</v>
+      </c>
+      <c r="B35" s="4">
+        <v>99</v>
+      </c>
+      <c r="C35" s="4">
+        <v>99</v>
+      </c>
+      <c r="D35" s="4">
+        <v>99</v>
+      </c>
+      <c r="E35" s="4">
+        <v>99</v>
+      </c>
+      <c r="F35" s="4">
+        <v>99</v>
+      </c>
+      <c r="G35" s="4">
+        <v>99</v>
+      </c>
+      <c r="H35" s="4">
+        <v>99</v>
+      </c>
+      <c r="I35" s="4">
+        <v>99</v>
+      </c>
+      <c r="J35" s="4">
+        <v>99</v>
+      </c>
+      <c r="K35" s="4">
+        <v>99</v>
+      </c>
+      <c r="L35" s="4">
+        <v>99</v>
+      </c>
+      <c r="M35" s="4">
+        <v>99</v>
+      </c>
+      <c r="N35" s="4">
+        <v>99</v>
+      </c>
+      <c r="O35" s="4">
+        <v>99</v>
+      </c>
+      <c r="P35" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>99</v>
+      </c>
+      <c r="R35" s="4">
+        <v>99</v>
+      </c>
+      <c r="S35" s="4">
+        <v>99</v>
+      </c>
+      <c r="T35" s="4">
+        <v>99</v>
+      </c>
+      <c r="U35" s="4">
+        <v>99</v>
+      </c>
+      <c r="V35" s="4">
+        <v>99</v>
+      </c>
+      <c r="W35" s="4">
+        <v>99</v>
+      </c>
+      <c r="X35" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL35" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM35" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>99</v>
+      </c>
+      <c r="B36" s="4">
+        <v>99</v>
+      </c>
+      <c r="C36" s="4">
+        <v>99</v>
+      </c>
+      <c r="D36" s="4">
+        <v>99</v>
+      </c>
+      <c r="E36" s="4">
+        <v>99</v>
+      </c>
+      <c r="F36" s="4">
+        <v>99</v>
+      </c>
+      <c r="G36" s="4">
+        <v>99</v>
+      </c>
+      <c r="H36" s="4">
+        <v>99</v>
+      </c>
+      <c r="I36" s="4">
+        <v>99</v>
+      </c>
+      <c r="J36" s="4">
+        <v>99</v>
+      </c>
+      <c r="K36" s="4">
+        <v>99</v>
+      </c>
+      <c r="L36" s="4">
+        <v>99</v>
+      </c>
+      <c r="M36" s="4">
+        <v>99</v>
+      </c>
+      <c r="N36" s="4">
+        <v>99</v>
+      </c>
+      <c r="O36" s="4">
+        <v>99</v>
+      </c>
+      <c r="P36" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>99</v>
+      </c>
+      <c r="R36" s="4">
+        <v>99</v>
+      </c>
+      <c r="S36" s="4">
+        <v>99</v>
+      </c>
+      <c r="T36" s="4">
+        <v>99</v>
+      </c>
+      <c r="U36" s="4">
+        <v>99</v>
+      </c>
+      <c r="V36" s="4">
+        <v>99</v>
+      </c>
+      <c r="W36" s="4">
+        <v>99</v>
+      </c>
+      <c r="X36" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL36" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM36" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4">
+        <v>99</v>
+      </c>
+      <c r="D37" s="4">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4">
+        <v>99</v>
+      </c>
+      <c r="F37" s="4">
+        <v>99</v>
+      </c>
+      <c r="G37" s="4">
+        <v>99</v>
+      </c>
+      <c r="H37" s="4">
+        <v>99</v>
+      </c>
+      <c r="I37" s="4">
+        <v>99</v>
+      </c>
+      <c r="J37" s="4">
+        <v>99</v>
+      </c>
+      <c r="K37" s="4">
+        <v>99</v>
+      </c>
+      <c r="L37" s="4">
+        <v>99</v>
+      </c>
+      <c r="M37" s="4">
+        <v>99</v>
+      </c>
+      <c r="N37" s="4">
+        <v>99</v>
+      </c>
+      <c r="O37" s="4">
+        <v>99</v>
+      </c>
+      <c r="P37" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>99</v>
+      </c>
+      <c r="R37" s="4">
+        <v>99</v>
+      </c>
+      <c r="S37" s="4">
+        <v>99</v>
+      </c>
+      <c r="T37" s="4">
+        <v>99</v>
+      </c>
+      <c r="U37" s="4">
+        <v>99</v>
+      </c>
+      <c r="V37" s="4">
+        <v>99</v>
+      </c>
+      <c r="W37" s="4">
+        <v>99</v>
+      </c>
+      <c r="X37" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL37" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM37" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>99</v>
+      </c>
+      <c r="B38" s="4">
+        <v>99</v>
+      </c>
+      <c r="C38" s="4">
+        <v>99</v>
+      </c>
+      <c r="D38" s="4">
+        <v>99</v>
+      </c>
+      <c r="E38" s="4">
+        <v>99</v>
+      </c>
+      <c r="F38" s="4">
+        <v>99</v>
+      </c>
+      <c r="G38" s="4">
+        <v>99</v>
+      </c>
+      <c r="H38" s="4">
+        <v>99</v>
+      </c>
+      <c r="I38" s="4">
+        <v>99</v>
+      </c>
+      <c r="J38" s="4">
+        <v>99</v>
+      </c>
+      <c r="K38" s="4">
+        <v>99</v>
+      </c>
+      <c r="L38" s="4">
+        <v>99</v>
+      </c>
+      <c r="M38" s="4">
+        <v>99</v>
+      </c>
+      <c r="N38" s="4">
+        <v>99</v>
+      </c>
+      <c r="O38" s="4">
+        <v>99</v>
+      </c>
+      <c r="P38" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>99</v>
+      </c>
+      <c r="R38" s="4">
+        <v>99</v>
+      </c>
+      <c r="S38" s="4">
+        <v>99</v>
+      </c>
+      <c r="T38" s="4">
+        <v>99</v>
+      </c>
+      <c r="U38" s="4">
+        <v>99</v>
+      </c>
+      <c r="V38" s="4">
+        <v>99</v>
+      </c>
+      <c r="W38" s="4">
+        <v>99</v>
+      </c>
+      <c r="X38" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>99</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BB38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BC38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BH38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BI38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BJ38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BK38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BL38" s="4">
+        <v>99</v>
+      </c>
+      <c r="BM38" s="4">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="183" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="181" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="180" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,163 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -734,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO25" sqref="AO25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -8232,72 +8076,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -143,7 +143,163 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -579,7 +735,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2573,11 +2729,11 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -2770,11 +2926,11 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2967,11 +3123,11 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3164,11 +3320,11 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3361,11 +3517,11 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -3558,11 +3714,11 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3755,11 +3911,11 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3952,11 +4108,11 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -8076,72 +8232,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\118\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,7 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="252">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -165,6 +165,1666 @@
       <fill>
         <patternFill patternType="lightVertical">
           <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,7 +2395,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G18"/>
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -944,107 +2604,107 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
       </c>
       <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0</v>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1</v>
       </c>
       <c r="AF2" s="3">
         <v>1</v>
       </c>
       <c r="AG2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="3">
         <v>3</v>
@@ -1061,47 +2721,47 @@
       <c r="AN2" s="5">
         <v>0</v>
       </c>
-      <c r="AO2" s="3">
-        <v>3</v>
+      <c r="AO2" s="5">
+        <v>0</v>
       </c>
       <c r="AP2" s="3">
         <v>3</v>
       </c>
       <c r="AQ2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS2" s="3">
         <v>1</v>
       </c>
-      <c r="AT2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY2" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ2" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="5">
-        <v>0</v>
+      <c r="AT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>1</v>
       </c>
       <c r="BC2" s="7">
         <v>1</v>
@@ -1141,104 +2801,104 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
       </c>
       <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>0</v>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1</v>
       </c>
       <c r="AF3" s="3">
         <v>1</v>
       </c>
       <c r="AG3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="3">
         <v>3</v>
@@ -1253,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="AM3" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN3" s="5">
         <v>0</v>
       </c>
-      <c r="AO3" s="3">
-        <v>3</v>
+      <c r="AO3" s="5">
+        <v>0</v>
       </c>
       <c r="AP3" s="3">
         <v>3</v>
@@ -1268,37 +2928,37 @@
         <v>3</v>
       </c>
       <c r="AR3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS3" s="3">
         <v>1</v>
       </c>
-      <c r="AT3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY3" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ3" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="5">
-        <v>0</v>
+      <c r="AT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>1</v>
       </c>
       <c r="BC3" s="7">
         <v>1</v>
@@ -1338,17 +2998,17 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1383,56 +3043,56 @@
       <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>0</v>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
       </c>
       <c r="AF4" s="3">
         <v>1</v>
       </c>
       <c r="AG4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="3">
         <v>3</v>
@@ -1447,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="5">
         <v>0</v>
@@ -1455,8 +3115,8 @@
       <c r="AN4" s="5">
         <v>0</v>
       </c>
-      <c r="AO4" s="3">
-        <v>3</v>
+      <c r="AO4" s="5">
+        <v>0</v>
       </c>
       <c r="AP4" s="3">
         <v>3</v>
@@ -1470,32 +3130,32 @@
       <c r="AS4" s="3">
         <v>1</v>
       </c>
-      <c r="AT4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ4" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="5">
-        <v>0</v>
+      <c r="AT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>1</v>
       </c>
       <c r="BC4" s="7">
         <v>1</v>
@@ -1535,14 +3195,14 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1602,34 +3262,34 @@
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="8">
         <v>1</v>
       </c>
       <c r="AG5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="3">
         <v>3</v>
@@ -1641,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="AK5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL5" s="4">
         <v>0</v>
@@ -1668,31 +3328,31 @@
         <v>1</v>
       </c>
       <c r="AT5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="7">
         <v>1</v>
@@ -1732,14 +3392,14 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1811,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="4">
         <v>1</v>
@@ -1826,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="3">
         <v>3</v>
@@ -1865,10 +3525,10 @@
         <v>1</v>
       </c>
       <c r="AT6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="5">
         <v>0</v>
@@ -1889,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="7">
         <v>1</v>
@@ -1929,14 +3589,14 @@
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -2086,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="7">
         <v>1</v>
@@ -2126,17 +3786,17 @@
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2283,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC8" s="7">
         <v>1</v>
@@ -2323,47 +3983,47 @@
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
       </c>
       <c r="P9" s="3">
         <v>1</v>
@@ -2520,53 +4180,53 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
       </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
       <c r="Q10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4">
         <v>0</v>
@@ -2605,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="8">
         <v>1</v>
       </c>
       <c r="AG10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="5">
         <v>0</v>
@@ -2677,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="7">
         <v>1</v>
@@ -2763,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="4">
         <v>0</v>
@@ -2805,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="8">
         <v>1</v>
       </c>
       <c r="AG11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="5">
         <v>0</v>
@@ -2868,13 +4528,13 @@
         <v>3</v>
       </c>
       <c r="AZ11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="7">
         <v>1</v>
@@ -2960,16 +4620,16 @@
         <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="4">
         <v>0</v>
@@ -3002,16 +4662,16 @@
         <v>11</v>
       </c>
       <c r="AE12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="3">
         <v>1</v>
       </c>
       <c r="AG12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="5">
         <v>0</v>
@@ -3041,39 +4701,39 @@
         <v>0</v>
       </c>
       <c r="AR12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="3">
         <v>1</v>
       </c>
-      <c r="AT12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY12" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="7">
+      <c r="AT12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="3">
         <v>1</v>
       </c>
       <c r="BD12" s="4">
@@ -3157,22 +4817,22 @@
         <v>1</v>
       </c>
       <c r="Q13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
@@ -3199,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="3">
         <v>1</v>
       </c>
       <c r="AG13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="5">
         <v>0</v>
@@ -3235,42 +4895,42 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="3">
         <v>1</v>
       </c>
-      <c r="AT13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY13" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="7">
+      <c r="AT13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="3">
         <v>1</v>
       </c>
       <c r="BD13" s="4">
@@ -3354,31 +5014,31 @@
         <v>1</v>
       </c>
       <c r="Q14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="4">
         <v>0</v>
@@ -3393,25 +5053,25 @@
         <v>0</v>
       </c>
       <c r="AD14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="3">
         <v>1</v>
       </c>
       <c r="AG14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="5">
         <v>0</v>
@@ -3429,45 +5089,45 @@
         <v>0</v>
       </c>
       <c r="AP14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="3">
         <v>1</v>
       </c>
-      <c r="AT14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY14" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ14" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="7">
+      <c r="AT14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="3">
         <v>1</v>
       </c>
       <c r="BD14" s="4">
@@ -3598,20 +5258,20 @@
       <c r="AF15" s="3">
         <v>1</v>
       </c>
-      <c r="AG15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="3">
+      <c r="AG15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="5">
         <v>1</v>
       </c>
       <c r="AK15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="5">
         <v>0</v>
@@ -3748,16 +5408,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U16" s="4">
         <v>0</v>
@@ -3775,40 +5435,40 @@
         <v>0</v>
       </c>
       <c r="Z16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>1</v>
       </c>
       <c r="AL16" s="4">
         <v>0</v>
@@ -3834,32 +5494,32 @@
       <c r="AS16" s="3">
         <v>1</v>
       </c>
-      <c r="AT16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="4">
-        <v>0</v>
+      <c r="AT16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>1</v>
       </c>
       <c r="BC16" s="7">
         <v>1</v>
@@ -3945,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4">
         <v>0</v>
@@ -3978,34 +5638,34 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="3">
         <v>1</v>
       </c>
-      <c r="AG17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="4">
-        <v>0</v>
+      <c r="AG17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>1</v>
       </c>
       <c r="AL17" s="4">
         <v>0</v>
@@ -4031,32 +5691,32 @@
       <c r="AS17" s="3">
         <v>1</v>
       </c>
-      <c r="AT17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="4">
-        <v>0</v>
+      <c r="AT17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>1</v>
       </c>
       <c r="BC17" s="7">
         <v>1</v>
@@ -4181,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="AD18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="3">
         <v>1</v>
@@ -4228,11 +5888,11 @@
       <c r="AS18" s="3">
         <v>1</v>
       </c>
-      <c r="AT18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="4">
-        <v>0</v>
+      <c r="AT18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>1</v>
       </c>
       <c r="AV18" s="4">
         <v>0</v>
@@ -4243,17 +5903,17 @@
       <c r="AX18" s="4">
         <v>0</v>
       </c>
-      <c r="AY18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="4">
-        <v>0</v>
+      <c r="AY18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>1</v>
       </c>
       <c r="BC18" s="7">
         <v>1</v>
@@ -4293,11 +5953,11 @@
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
         <v>5</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -4444,13 +6104,13 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="7">
         <v>1</v>
@@ -4490,8 +6150,8 @@
       <c r="A20" s="3">
         <v>1</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
+      <c r="B20" s="3">
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -4647,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="BB20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="7">
         <v>1</v>
@@ -4687,7 +6347,7 @@
       <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="4">
@@ -4844,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="BB21" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="7">
         <v>1</v>
@@ -4930,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="4">
         <v>0</v>
@@ -5041,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC22" s="7">
         <v>1</v>
@@ -5127,16 +6787,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U23" s="4">
         <v>0</v>
@@ -5320,53 +6980,53 @@
       <c r="O24" s="4">
         <v>1</v>
       </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>3</v>
-      </c>
-      <c r="T24" s="4">
-        <v>3</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1</v>
       </c>
       <c r="AF24" s="3">
         <v>1</v>
@@ -5411,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AT24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
@@ -5435,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="7">
         <v>1</v>
@@ -5517,53 +7177,53 @@
       <c r="O25" s="4">
         <v>1</v>
       </c>
-      <c r="P25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>3</v>
-      </c>
-      <c r="T25" s="4">
-        <v>3</v>
-      </c>
-      <c r="U25" s="4">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4">
-        <v>0</v>
-      </c>
-      <c r="X25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>0</v>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>1</v>
       </c>
       <c r="AF25" s="3">
         <v>1</v>
@@ -5607,14 +7267,14 @@
       <c r="AS25" s="3">
         <v>1</v>
       </c>
-      <c r="AT25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="4">
-        <v>0</v>
+      <c r="AT25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="3">
+        <v>1</v>
       </c>
       <c r="AW25" s="4">
         <v>0</v>
@@ -5626,13 +7286,13 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="7">
         <v>1</v>
@@ -5714,53 +7374,53 @@
       <c r="O26" s="4">
         <v>1</v>
       </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>3</v>
-      </c>
-      <c r="T26" s="4">
-        <v>3</v>
-      </c>
-      <c r="U26" s="4">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>0</v>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>1</v>
       </c>
       <c r="AF26" s="3">
         <v>1</v>
@@ -5799,37 +7459,37 @@
         <v>0</v>
       </c>
       <c r="AR26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="4">
         <v>1</v>
       </c>
       <c r="AT26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="7">
         <v>1</v>
@@ -8232,72 +9892,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map1.xlsx
+++ b/project[C]/project[C]/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\118\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,7 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -165,1666 +165,6 @@
       <fill>
         <patternFill patternType="lightVertical">
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2395,7 +735,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3524,31 +1864,31 @@
       <c r="AS6" s="3">
         <v>1</v>
       </c>
-      <c r="AT6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY6" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ6" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="5">
+      <c r="AT6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3">
         <v>1</v>
       </c>
       <c r="BC6" s="7">
@@ -3674,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="AD7" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7" s="4">
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
-        <v>7</v>
+      <c r="AF7" s="5">
+        <v>0</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
@@ -3718,35 +2058,35 @@
       <c r="AR7" s="5">
         <v>0</v>
       </c>
-      <c r="AS7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="5">
-        <v>0</v>
+      <c r="AS7" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>1</v>
       </c>
       <c r="BC7" s="7">
         <v>1</v>
@@ -3862,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
       </c>
       <c r="AG8" s="5">
         <v>0</v>
@@ -3915,35 +2255,35 @@
       <c r="AR8" s="5">
         <v>0</v>
       </c>
-      <c r="AS8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY8" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="5">
-        <v>4</v>
+      <c r="AS8" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>1</v>
       </c>
       <c r="BC8" s="7">
         <v>1</v>
@@ -4112,34 +2452,34 @@
       <c r="AR9" s="5">
         <v>0</v>
       </c>
-      <c r="AS9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY9" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ9" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="5">
+      <c r="AS9" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="4">
         <v>0</v>
       </c>
       <c r="BC9" s="7">
@@ -4309,35 +2649,35 @@
       <c r="AR10" s="5">
         <v>0</v>
       </c>
-      <c r="AS10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY10" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ10" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="5">
-        <v>1</v>
+      <c r="AS10" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>9</v>
       </c>
       <c r="BC10" s="7">
         <v>1</v>
@@ -4506,35 +2846,35 @@
       <c r="AR11" s="5">
         <v>0</v>
       </c>
-      <c r="AS11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="6">
-        <v>3</v>
-      </c>
-      <c r="AY11" s="6">
-        <v>3</v>
-      </c>
-      <c r="AZ11" s="5">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="5">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="5">
-        <v>1</v>
+      <c r="AS11" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="4">
+        <v>0</v>
       </c>
       <c r="BC11" s="7">
         <v>1</v>
@@ -4706,31 +3046,31 @@
       <c r="AS12" s="3">
         <v>1</v>
       </c>
-      <c r="AT12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="3">
+      <c r="AT12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="4">
         <v>1</v>
       </c>
       <c r="BC12" s="3">
@@ -4912,22 +3252,22 @@
       <c r="AV13" s="3">
         <v>1</v>
       </c>
-      <c r="AW13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="3">
+      <c r="AW13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="4">
         <v>1</v>
       </c>
       <c r="BC13" s="3">
@@ -5489,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16" s="3">
         <v>1</v>
@@ -5665,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="AK17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="4">
         <v>0</v>
@@ -5859,10 +4199,10 @@
         <v>1</v>
       </c>
       <c r="AJ18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="4">
         <v>0</v>
@@ -5877,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="AP18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="4">
         <v>0</v>
@@ -5888,31 +4228,31 @@
       <c r="AS18" s="3">
         <v>1</v>
       </c>
-      <c r="AT18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="3">
+      <c r="AT18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="5">
         <v>1</v>
       </c>
       <c r="BC18" s="7">
@@ -6041,16 +4381,16 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1</v>
       </c>
       <c r="AG19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="4">
         <v>0</v>
@@ -6082,35 +4422,35 @@
       <c r="AR19" s="4">
         <v>0</v>
       </c>
-      <c r="AS19" s="8">
-        <v>13</v>
-      </c>
-      <c r="AT19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="4">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="4">
-        <v>1</v>
+      <c r="AS19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>0</v>
       </c>
       <c r="BC19" s="7">
         <v>1</v>
@@ -6153,14 +4493,14 @@
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -6279,35 +4619,35 @@
       <c r="AR20" s="4">
         <v>0</v>
       </c>
-      <c r="AS20" s="8">
-        <v>13</v>
-      </c>
-      <c r="AT20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="4">
-        <v>6</v>
-      </c>
-      <c r="AY20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="4">
-        <v>1</v>
+      <c r="AS20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="5">
+        <v>4</v>
       </c>
       <c r="BC20" s="7">
         <v>1</v>
@@ -6476,34 +4816,34 @@
       <c r="AR21" s="4">
         <v>0</v>
       </c>
-      <c r="AS21" s="8">
-        <v>13</v>
-      </c>
-      <c r="AT21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="4">
+      <c r="AS21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="5">
         <v>0</v>
       </c>
       <c r="BC21" s="7">
@@ -6673,35 +5013,35 @@
       <c r="AR22" s="4">
         <v>0</v>
       </c>
-      <c r="AS22" s="8">
-        <v>13</v>
-      </c>
-      <c r="AT22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="4">
-        <v>6</v>
-      </c>
-      <c r="AX22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="4">
-        <v>9</v>
+      <c r="AS22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>1</v>
       </c>
       <c r="BC22" s="7">
         <v>1</v>
@@ -6870,35 +5210,35 @@
       <c r="AR23" s="4">
         <v>0</v>
       </c>
-      <c r="AS23" s="8">
-        <v>13</v>
-      </c>
-      <c r="AT23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="4">
-        <v>0</v>
+      <c r="AS23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="5">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="5">
+        <v>1</v>
       </c>
       <c r="BC23" s="7">
         <v>1</v>
@@ -7059,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="AP24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="4">
         <v>0</v>
@@ -7070,31 +5410,31 @@
       <c r="AS24" s="3">
         <v>1</v>
       </c>
-      <c r="AT24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="4">
+      <c r="AT24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="3">
         <v>1</v>
       </c>
       <c r="BC24" s="7">
@@ -7276,22 +5616,22 @@
       <c r="AV25" s="3">
         <v>1</v>
       </c>
-      <c r="AW25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BB25" s="4">
+      <c r="AW25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="3">
         <v>1</v>
       </c>
       <c r="BC25" s="7">
@@ -9892,72 +8232,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="235" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AR6 AJ7:AQ7 A1:AP27">
-    <cfRule type="cellIs" dxfId="234" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BC27">
-    <cfRule type="cellIs" dxfId="233" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="232" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
